--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43747</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         <v>44167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>44230</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45005</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>43748</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44641</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         <v>44880</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>45006</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>45006</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43747</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         <v>44167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>44230</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45005</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>43748</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44641</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         <v>44880</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>45006</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>45006</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43747</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         <v>44167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>44230</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45005</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>43748</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44641</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         <v>44880</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>45006</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>45006</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43747</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         <v>44167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>44230</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45005</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>43748</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44641</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         <v>44880</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>45006</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>45006</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43747</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         <v>44167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>44230</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45005</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>43748</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44641</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         <v>44880</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>45006</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>45006</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43747</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         <v>44167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>44230</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45005</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>43748</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44641</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         <v>44880</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>45006</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>45006</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43747</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         <v>44167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>44230</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45005</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>43748</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44641</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         <v>44880</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>45006</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>45006</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43747</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         <v>44167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>44230</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45005</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>43748</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44641</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         <v>44880</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>45006</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>45006</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43747</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         <v>44167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>44230</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45005</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>43748</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44641</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         <v>44880</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>45006</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>45006</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43747</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,27 +672,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/artfynd/A 53008-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/artfynd/A 53008-2019.xlsx", "A 53008-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/kartor/A 53008-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/kartor/A 53008-2019.png", "A 53008-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/klagomål/A 53008-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/klagomål/A 53008-2019.docx", "A 53008-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/klagomålsmail/A 53008-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/klagomålsmail/A 53008-2019.docx", "A 53008-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/tillsyn/A 53008-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/tillsyn/A 53008-2019.docx", "A 53008-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/tillsynsmail/A 53008-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/tillsynsmail/A 53008-2019.docx", "A 53008-2019")</f>
         <v/>
       </c>
     </row>
@@ -706,7 +706,7 @@
         <v>44167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,27 +773,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/artfynd/A 63942-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/artfynd/A 63942-2020.xlsx", "A 63942-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/kartor/A 63942-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/kartor/A 63942-2020.png", "A 63942-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/klagomål/A 63942-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/klagomål/A 63942-2020.docx", "A 63942-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/klagomålsmail/A 63942-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/klagomålsmail/A 63942-2020.docx", "A 63942-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/tillsyn/A 63942-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/tillsyn/A 63942-2020.docx", "A 63942-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/tillsynsmail/A 63942-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/tillsynsmail/A 63942-2020.docx", "A 63942-2020")</f>
         <v/>
       </c>
     </row>
@@ -807,7 +807,7 @@
         <v>44230</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,27 +866,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/artfynd/A 5541-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/artfynd/A 5541-2021.xlsx", "A 5541-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/kartor/A 5541-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/kartor/A 5541-2021.png", "A 5541-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/klagomål/A 5541-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/klagomål/A 5541-2021.docx", "A 5541-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/klagomålsmail/A 5541-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/klagomålsmail/A 5541-2021.docx", "A 5541-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/tillsyn/A 5541-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/tillsyn/A 5541-2021.docx", "A 5541-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/tillsynsmail/A 5541-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/tillsynsmail/A 5541-2021.docx", "A 5541-2021")</f>
         <v/>
       </c>
     </row>
@@ -900,7 +900,7 @@
         <v>45005</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -955,27 +955,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/artfynd/A 13467-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/artfynd/A 13467-2023.xlsx", "A 13467-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/kartor/A 13467-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/kartor/A 13467-2023.png", "A 13467-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/klagomål/A 13467-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/klagomål/A 13467-2023.docx", "A 13467-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/klagomålsmail/A 13467-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/klagomålsmail/A 13467-2023.docx", "A 13467-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/tillsyn/A 13467-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/tillsyn/A 13467-2023.docx", "A 13467-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/tillsynsmail/A 13467-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HELSINGBORG/tillsynsmail/A 13467-2023.docx", "A 13467-2023")</f>
         <v/>
       </c>
     </row>
@@ -989,7 +989,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>43748</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44641</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         <v>44880</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>45006</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>45006</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43747</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         <v>44167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>44230</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45005</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>43748</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44641</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         <v>44880</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>45006</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>45006</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43747</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,13 +588,13 @@
         <v>31.7</v>
       </c>
       <c r="H2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="n">
         <v>18</v>
       </c>
       <c r="J2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -609,13 +609,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -631,6 +631,7 @@
 Getinglik svampmygga
 Gråbandad trägnagare
 Gulsparv
+Havsörn
 Hålskenknäppare
 Kråka
 Matt pricklav
@@ -706,7 +707,7 @@
         <v>44167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -807,7 +808,7 @@
         <v>44230</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +901,7 @@
         <v>45005</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -989,7 +990,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1046,7 +1047,7 @@
         <v>43748</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1104,7 @@
         <v>44641</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1160,7 +1161,7 @@
         <v>44880</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1222,7 +1223,7 @@
         <v>45006</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1279,7 +1280,7 @@
         <v>45006</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1336,7 +1337,7 @@
         <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43747</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
         <v>44167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         <v>44230</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45005</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>43748</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44641</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>44880</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>45006</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45006</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43747</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
         <v>44167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         <v>44230</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45005</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>43748</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44641</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>44880</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>45006</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45006</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43747</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,13 +588,13 @@
         <v>31.7</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="n">
         <v>18</v>
       </c>
       <c r="J2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -609,13 +609,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -638,6 +638,7 @@
 Orangepudrad klotterlav
 Plectophloeus nubigena
 Skogsveronika
+Skånebjörnbär
 Stiftklotterlav
 Synchita variegata
 Trinodes hirtus
@@ -669,7 +670,8 @@
 Vanlig padda
 Getlav
 Grönvit nattviol
-Sankt pers nycklar</t>
+Sankt pers nycklar
+Blåsippa</t>
         </is>
       </c>
       <c r="S2">
@@ -707,7 +709,7 @@
         <v>44167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -808,7 +810,7 @@
         <v>44230</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -901,7 +903,7 @@
         <v>45005</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +992,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1049,7 @@
         <v>43748</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1106,7 @@
         <v>44641</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1161,7 +1163,7 @@
         <v>44880</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1223,7 +1225,7 @@
         <v>45006</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1280,7 +1282,7 @@
         <v>45006</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1327,7 +1329,7 @@
       </c>
       <c r="R11" s="2" t="inlineStr"/>
     </row>
-    <row r="12">
+    <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
           <t>A 35642-2023</t>
@@ -1337,7 +1339,7 @@
         <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1383,6 +1385,63 @@
         <v>0</v>
       </c>
       <c r="R12" s="2" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 45832-2023</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>HELSINGBORG</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43747</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         <v>44167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44230</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         <v>45005</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43748</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44641</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>44880</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45006</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45006</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>45195</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43747</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         <v>44167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44230</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         <v>45005</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43748</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44641</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>44880</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45006</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45006</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>45195</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43747</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         <v>44167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44230</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         <v>45005</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43748</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44641</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>44880</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45006</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45006</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>45195</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>

--- a/Översikt HELSINGBORG.xlsx
+++ b/Översikt HELSINGBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43747</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         <v>44167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44230</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         <v>45005</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         <v>43339</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43748</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44641</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>44880</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45006</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45006</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45147</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>45195</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
